--- a/src/main/resources/xlsx/menu_list.xlsx
+++ b/src/main/resources/xlsx/menu_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\java\handlers\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124F3363-AF2A-424A-A256-AD2D685F551A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFE265-441D-4513-8057-CEBBDCD21A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="1980" windowWidth="22875" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="-19785" yWindow="1935" windowWidth="19605" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -89,6 +89,27 @@
   </si>
   <si>
     <t>drink</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Delicious French Fries</t>
+  </si>
+  <si>
+    <t>3 Pieces of delicious chicken!</t>
+  </si>
+  <si>
+    <t>Fish ala Cajun!</t>
+  </si>
+  <si>
+    <t>cold slaw!</t>
+  </si>
+  <si>
+    <t>nuggies</t>
+  </si>
+  <si>
+    <t>bepsi</t>
   </si>
 </sst>
 </file>
@@ -493,12 +514,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +529,7 @@
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -521,8 +542,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -535,8 +559,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,8 +576,11 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -563,8 +593,11 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -577,8 +610,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -591,8 +627,11 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -605,8 +644,11 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -619,8 +661,11 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -633,26 +678,29 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/src/main/resources/xlsx/menu_list.xlsx
+++ b/src/main/resources/xlsx/menu_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SC2002-AY23-24-FOMS\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/Github/SC2002-AY23-24-FOMS/src/main/resources/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFE265-441D-4513-8057-CEBBDCD21A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA375E0-CB8A-B342-BAE5-DA96DF76E005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19785" yWindow="1935" windowWidth="19605" windowHeight="11385" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A1AB1725-9614-4760-9E35-FCE78E076BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="staff" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,12 @@
   </si>
   <si>
     <t>bepsi</t>
+  </si>
+  <si>
+    <t>Is Available</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -188,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -200,6 +206,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +265,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +371,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -514,22 +521,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DE67C8-F00F-4E71-A7B2-83068F640C77}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -545,8 +552,11 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -562,8 +572,11 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -579,8 +592,11 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -596,8 +612,11 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -613,8 +632,11 @@
       <c r="E5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -630,8 +652,11 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -647,8 +672,11 @@
       <c r="E7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,8 +692,11 @@
       <c r="E8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -681,233 +712,236 @@
       <c r="E9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
     </row>
   </sheetData>
